--- a/xlsx/_wiki_哈佛-麻省理工医疗科技学院_intext.xlsx
+++ b/xlsx/_wiki_哈佛-麻省理工医疗科技学院_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>哈佛-麻省理工医疗科技学院</t>
   </si>
@@ -522,12 +522,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Harvard%E2%80%93MIT_Program_of_Health_Sciences_and_Technology</t>
@@ -888,7 +882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2940,29 +2934,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1</v>
-      </c>
-      <c r="D90" t="n">
-        <v>89</v>
-      </c>
-      <c r="E90" t="s">
-        <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/_wiki_哈佛-麻省理工医疗科技学院_intext.xlsx
+++ b/xlsx/_wiki_哈佛-麻省理工医疗科技学院_intext.xlsx
@@ -23,91 +23,91 @@
     <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B-%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%8C%BB%E7%96%97%E7%A7%91%E6%8A%80%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E8%AE%AD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%A0%A1%E8%AE%AD</t>
   </si>
   <si>
     <t>校训</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
     <t>美国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%BA%BB%E7%9C%81</t>
   </si>
   <si>
     <t>麻省</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%91%E6%A1%A5_(%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%89%91%E6%A1%A5_(%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E)</t>
   </si>
   <si>
     <t>剑桥 (马萨诸塞州)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
     <t>哈佛大学</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
     <t>麻省理工学院</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%8B%B1%E6%96%87</t>
   </si>
   <si>
     <t>英文</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
     <t>缩写</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%8C%BB%E5%AD%A6%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E5%8C%BB%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
     <t>哈佛医学院</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%99%85%E6%95%B4%E5%90%88</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A7%91%E9%99%85%E6%95%B4%E5%90%88</t>
   </si>
   <si>
     <t>科际整合</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/Template_talk:%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
     <t>Template talk-哈佛大学</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%93%88%E4%BD%9B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B4%84%E7%BF%B0%C2%B7%E5%93%88%E4%BD%9B</t>
   </si>
   <si>
     <t>约翰·哈佛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E6%A0%A1%E8%91%A3%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E6%A0%A1%E8%91%A3%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>哈佛大学校董委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E6%A0%A1%E9%95%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E6%A0%A1%E9%95%BF</t>
   </si>
   <si>
     <t>哈佛大学校长</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%B2%81%C2%B7%E5%90%89%E5%B0%94%E5%B9%B3%C2%B7%E7%A6%8F%E6%96%AF%E7%89%B9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BE%B7%E9%B2%81%C2%B7%E5%90%89%E5%B0%94%E5%B9%B3%C2%B7%E7%A6%8F%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
     <t>德鲁·吉尔平·福斯特</t>
@@ -119,7 +119,7 @@
     <t>en-Harvard Board of Overseers</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E6%99%93%E7%8A%81</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AD%9F%E6%99%93%E7%8A%81</t>
   </si>
   <si>
     <t>孟晓犁</t>
@@ -167,7 +167,7 @@
     <t>en-Martha Minow</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%88%A9%E5%A5%A7%C2%B7%E5%BC%97%E5%80%AB%E5%85%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%83%A1%E5%88%A9%E5%A5%A7%C2%B7%E5%BC%97%E5%80%AB%E5%85%8B</t>
   </si>
   <si>
     <t>胡利奥·弗伦克</t>
@@ -179,37 +179,37 @@
     <t>en-Jeffrey S. Flier</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E6%96%87%E7%90%86%E5%AD%A6%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E6%96%87%E7%90%86%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
     <t>哈佛大学文理学院</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%AD%B8%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
     <t>哈佛学院</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E6%96%87%E7%90%86%E7%A0%94%E7%A9%B6%E7%94%9F%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E6%96%87%E7%90%86%E7%A0%94%E7%A9%B6%E7%94%9F%E9%99%A2</t>
   </si>
   <si>
     <t>哈佛大学文理研究生院</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E5%B7%A5%E7%A8%8B%E4%B8%8E%E5%BA%94%E7%94%A8%E7%A7%91%E5%AD%A6%E5%AD%A6%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E5%B7%A5%E7%A8%8B%E4%B8%8E%E5%BA%94%E7%94%A8%E7%A7%91%E5%AD%A6%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
     <t>哈佛大学工程与应用科学学院</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8%E9%80%B2%E4%BF%AE%E5%AD%B8%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8%E9%80%B2%E4%BF%AE%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
     <t>哈佛大学进修学院</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E6%9A%91%E6%9C%9F%E5%AD%B8%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E6%9A%91%E6%9C%9F%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
     <t>哈佛暑期学院</t>
@@ -221,7 +221,7 @@
     <t>en-Harvard Extension School</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E7%89%99%E9%86%AB%E5%AD%B8%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E7%89%99%E9%86%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
     <t>哈佛牙医学院</t>
@@ -233,7 +233,7 @@
     <t>en-Harvard T.H. Chan School of Public Health</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%95%86%E5%AD%A6%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E5%95%86%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
     <t>哈佛商学院</t>
@@ -245,7 +245,7 @@
     <t>en-Harvard Graduate School of Design</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E7%A5%9E%E5%AD%A6%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E7%A5%9E%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
     <t>哈佛神学院</t>
@@ -257,13 +257,13 @@
     <t>en-Harvard Graduate School of Education</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7F%C2%B7%E8%82%AF%E5%B0%BC%E8%BF%AA%E6%94%BF%E5%BA%9C%E5%AD%A6%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BA%A6%E7%BF%B0%C2%B7F%C2%B7%E8%82%AF%E5%B0%BC%E8%BF%AA%E6%94%BF%E5%BA%9C%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
     <t>约翰·F·肯尼迪政府学院</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E6%B3%95%E5%AD%A6%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E6%B3%95%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
     <t>哈佛法学院</t>
@@ -275,7 +275,7 @@
     <t>en-Radcliffe Institute for Advanced Study</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%BE%B7%E5%85%8B%E5%88%A9%E5%A4%AB%E5%AD%A6%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%8B%89%E5%BE%B7%E5%85%8B%E5%88%A9%E5%A4%AB%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
     <t>拉德克利夫学院</t>
@@ -359,73 +359,73 @@
     <t>en-List of Harvard dormitories</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
   </si>
   <si>
     <t>哈佛大学图书馆</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E7%87%95%E4%BA%AC%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E7%87%95%E4%BA%AC%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
     <t>哈佛燕京图书馆</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E5%BE%B7%E7%B4%8D%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%87%B7%E5%BE%B7%E7%B4%8D%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
     <t>怀德纳图书馆</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%A0%BC%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A6%8F%E6%A0%BC%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
     <t>福格艺术博物馆</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
     <t>哈佛艺术博物馆</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E8%87%AA%E7%84%B6%E5%8F%B2%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E8%87%AA%E7%84%B6%E5%8F%B2%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
     <t>哈佛自然史博物馆</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E5%87%BA%E7%89%88%E7%A4%BE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
     <t>哈佛大学出版社</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%88%9B%E6%96%B0%E5%AE%9E%E9%AA%8C%E5%AE%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E5%88%9B%E6%96%B0%E5%AE%9E%E9%AA%8C%E5%AE%A4</t>
   </si>
   <si>
     <t>哈佛创新实验室</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E5%A4%A9%E6%96%87%E5%8F%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E5%A4%A9%E6%96%87%E5%8F%B0</t>
   </si>
   <si>
     <t>哈佛大学天文台</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%EF%BC%8D%E5%8F%B2%E5%AF%86%E6%9D%BE%E5%A4%A9%E4%BD%93%E7%89%A9%E7%90%86%E4%B8%AD%E5%BF%83</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%EF%BC%8D%E5%8F%B2%E5%AF%86%E6%9D%BE%E5%A4%A9%E4%BD%93%E7%89%A9%E7%90%86%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
     <t>哈佛－史密松天体物理中心</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E6%AD%A3%E6%B8%85%E4%B8%AD%E5%9C%8B%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B2%BB%E6%AD%A3%E6%B8%85%E4%B8%AD%E5%9C%8B%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
     <t>费正清中国研究中心</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E7%87%95%E4%BA%AC%E5%AD%A6%E7%A4%BE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E7%87%95%E4%BA%AC%E5%AD%A6%E7%A4%BE</t>
   </si>
   <si>
     <t>哈佛燕京学社</t>
@@ -479,43 +479,43 @@
     <t>en-Wyss Institute for Biologically Inspired Engineering</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E7%BB%AF%E7%BA%A2%E9%98%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E7%BB%AF%E7%BA%A2%E9%98%9F</t>
   </si>
   <si>
     <t>哈佛大学绯红队</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E6%98%A5%E8%97%A4%E7%9B%9F%E6%A0%A1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B8%B8%E6%98%A5%E8%97%A4%E7%9B%9F%E6%A0%A1</t>
   </si>
   <si>
     <t>常春藤盟校</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%BE%8E%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E5%8D%94%E6%9C%83</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%A8%E7%BE%8E%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
     <t>全美大学体育协会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%95%86%E6%A5%AD%E8%A9%95%E8%AB%96</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E5%95%86%E6%A5%AD%E8%A9%95%E8%AB%96</t>
   </si>
   <si>
     <t>哈佛商业评论</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E6%B3%95%E5%BE%8B%E8%AF%84%E8%AE%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E6%B3%95%E5%BE%8B%E8%AF%84%E8%AE%BA</t>
   </si>
   <si>
     <t>哈佛法律评论</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E6%A0%A1%E7%BA%A7%E6%95%99%E6%8E%88</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6%E6%A0%A1%E7%BA%A7%E6%95%99%E6%8E%88</t>
   </si>
   <si>
     <t>哈佛大学校级教授</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B-%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E9%86%AB%E7%99%82%E7%A7%91%E6%8A%80%E5%AD%B8%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E4%BD%9B-%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E9%86%AB%E7%99%82%E7%A7%91%E6%8A%80%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
     <t>浏览条目正文[c]</t>
